--- a/docs/部品選定・発注/購入申請(20210615).xlsx
+++ b/docs/部品選定・発注/購入申請(20210615).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAOYUKI\Documents\4回生前期\プロジェクト演習4\gitPro4\docs\部品選定・発注\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2A6521-3F5C-47CF-A7CA-59EF5CA5BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AD2A6521-3F5C-47CF-A7CA-59EF5CA5BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE64E6A-2D2F-4597-9D62-34D475B5DEE0}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="-14955" windowWidth="23505" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1097" yWindow="1097" windowWidth="16457" windowHeight="8632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="1">
@@ -493,6 +493,10 @@
     <rPh sb="28" eb="30">
       <t>ナオユキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.switch-science.com/catalog/5413/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,6 +960,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,9 +985,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,42 +1620,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3046875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.23046875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.3046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.07421875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1709,25 +1713,25 @@
         <v>2</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H6" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H4" si="0">F3*G3</f>
         <v>63784</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="42" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="40"/>
@@ -1752,7 +1756,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1786,7 +1790,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1827,16 +1831,16 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="28">
         <f>SUM(H3:H7)</f>
         <v>82616</v>
@@ -1845,13 +1849,13 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
     </row>
   </sheetData>
@@ -1862,10 +1866,11 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{FCF471A7-D6DE-44E4-A189-0D5D4E361C7D}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{5BEA9AB6-A959-45C7-9016-37431754EB9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1877,38 +1882,38 @@
       <selection activeCell="K11" sqref="B8:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.765625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.3046875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.23046875" style="14" customWidth="1"/>
     <col min="6" max="6" width="8" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.23046875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="90.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.07421875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="90.4609375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -1941,7 +1946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1975,7 +1980,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2016,7 +2021,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2086,7 +2091,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>61</v>
@@ -2118,12 +2123,12 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="42" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="40"/>
@@ -2148,7 +2153,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>5</v>
       </c>
@@ -2182,7 +2187,7 @@
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2223,7 +2228,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -2257,7 +2262,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2291,7 +2296,7 @@
       </c>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -2317,7 +2322,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2343,7 +2348,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2356,7 +2361,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -2388,7 +2393,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -2420,7 +2425,7 @@
       </c>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2461,7 +2466,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>71</v>
@@ -2493,7 +2498,7 @@
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
         <v>66</v>
@@ -2523,7 +2528,7 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
         <v>65</v>
@@ -2555,7 +2560,7 @@
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
         <v>83</v>
@@ -2587,7 +2592,7 @@
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="22" t="s">
         <v>85</v>
@@ -2619,7 +2624,7 @@
       </c>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22" t="s">
@@ -2645,7 +2650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2658,16 +2663,16 @@
       <c r="J28" s="15"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="26">
         <f>SUM(H3:H27)</f>
         <v>153234</v>
@@ -2676,22 +2681,22 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="12.6" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="12" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I48" s="10"/>
     </row>
   </sheetData>
